--- a/output/BayesTheo1SymmetCitptile0.9alpha0.05power0.8N1000/BayesTheo1SymmetCitptile0.9alpha0.05power0.8N1000N1000.xlsx
+++ b/output/BayesTheo1SymmetCitptile0.9alpha0.05power0.8N1000/BayesTheo1SymmetCitptile0.9alpha0.05power0.8N1000N1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewan\Documents\MATLAB\Modeling\Replication market\output\BayesTheo1SymmetCitptile0.9alpha0.05power0.8N1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9695DE9-3838-41C3-8690-27AD74D1AD38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1943DA59-7701-4368-AEFA-3C95F0F0AD16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="2250" windowWidth="21600" windowHeight="12735" xr2:uid="{4F2E7885-183E-4915-8CF7-71EBBEBEF158}"/>
+    <workbookView xWindow="1524" yWindow="1212" windowWidth="27060" windowHeight="10800" xr2:uid="{DA2ADEED-EC2B-46F8-A990-C6DCBF492869}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="4" r:id="rId1"/>
@@ -466,31 +466,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB89F83-88F3-403A-A6DF-AC89A5096A5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7CD86D-8D7B-48E3-BB8A-F14BF666E1E8}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -545,46 +545,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.1127423573183055E-2</v>
+        <v>5.140862042089886E-2</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>8.1839999999999993</v>
+        <v>8.1950000000000003</v>
       </c>
       <c r="F2">
-        <v>183.04400000000001</v>
+        <v>183.04900000000001</v>
       </c>
       <c r="G2">
-        <v>69.623999999999995</v>
+        <v>69.659000000000006</v>
       </c>
       <c r="H2">
-        <v>10.233000000000001</v>
+        <v>11.016999999999999</v>
       </c>
       <c r="I2">
-        <v>9.8729999999999993</v>
+        <v>10.069000000000001</v>
       </c>
       <c r="J2">
-        <v>4.5560561101377677E-2</v>
+        <v>5.0902588673422795E-2</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>83.043999999999997</v>
+        <v>83.049000000000007</v>
       </c>
       <c r="M2">
-        <v>183.04400000000001</v>
+        <v>183.04900000000001</v>
       </c>
       <c r="N2">
-        <v>10.037000000000001</v>
+        <v>10.64</v>
       </c>
       <c r="O2">
-        <v>9.4979999999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.4649999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -592,46 +592,46 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.2947087173240412E-2</v>
+        <v>5.1416237258915073E-2</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>8.1790000000000003</v>
+        <v>8.1920000000000002</v>
       </c>
       <c r="F3">
-        <v>183.26</v>
+        <v>183.13499999999999</v>
       </c>
       <c r="G3">
-        <v>69.652000000000001</v>
+        <v>69.781999999999996</v>
       </c>
       <c r="H3">
-        <v>7.0140000000000002</v>
+        <v>6.9989999999999997</v>
       </c>
       <c r="I3">
-        <v>6.8890000000000002</v>
+        <v>7.28</v>
       </c>
       <c r="J3">
-        <v>5.0227826979848553E-2</v>
+        <v>4.8228766538625692E-2</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>83.26</v>
+        <v>83.135000000000005</v>
       </c>
       <c r="M3">
-        <v>108.423</v>
+        <v>108.486</v>
       </c>
       <c r="N3">
-        <v>7.12</v>
+        <v>7.0869999999999997</v>
       </c>
       <c r="O3">
-        <v>7.048</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.0129999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -639,46 +639,46 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>5.4823441468095702E-2</v>
+        <v>5.0039807405980574E-2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>8.1690000000000005</v>
+        <v>8.1679999999999993</v>
       </c>
       <c r="F4">
-        <v>183.01</v>
+        <v>183.03100000000001</v>
       </c>
       <c r="G4">
-        <v>69.567999999999998</v>
+        <v>69.38</v>
       </c>
       <c r="H4">
-        <v>9.7089999999999996</v>
+        <v>10.589</v>
       </c>
       <c r="I4">
-        <v>10.042</v>
+        <v>10.413</v>
       </c>
       <c r="J4">
-        <v>5.1849586866710165E-2</v>
+        <v>3.9813748079877115E-2</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>83.01</v>
+        <v>83.031000000000006</v>
       </c>
       <c r="M4">
-        <v>112.024</v>
+        <v>112.035</v>
       </c>
       <c r="N4">
-        <v>10.061999999999999</v>
+        <v>10.026999999999999</v>
       </c>
       <c r="O4">
-        <v>9.9540000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.9410000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -686,46 +686,46 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5.2005782797106465E-2</v>
+        <v>5.2858942067693988E-2</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>8.1890000000000001</v>
+        <v>8.1760000000000002</v>
       </c>
       <c r="F5">
-        <v>182.98599999999999</v>
+        <v>183.096</v>
       </c>
       <c r="G5">
-        <v>69.522000000000006</v>
+        <v>69.468000000000004</v>
       </c>
       <c r="H5">
-        <v>16.452000000000002</v>
+        <v>16.425000000000001</v>
       </c>
       <c r="I5">
-        <v>16.364000000000001</v>
+        <v>16.311</v>
       </c>
       <c r="J5">
-        <v>5.1425281684349095E-2</v>
+        <v>5.2923390423390441E-2</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>82.986000000000004</v>
+        <v>83.096000000000004</v>
       </c>
       <c r="M5">
-        <v>119.617</v>
+        <v>119.523</v>
       </c>
       <c r="N5">
-        <v>16.266999999999999</v>
+        <v>16.364999999999998</v>
       </c>
       <c r="O5">
-        <v>16.091999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16.190000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -733,46 +733,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.0356852563764189E-2</v>
+        <v>4.9581279983024272E-2</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>8.1910000000000007</v>
+        <v>8.1920000000000002</v>
       </c>
       <c r="F6">
-        <v>184.02500000000001</v>
+        <v>183.95400000000001</v>
       </c>
       <c r="G6">
-        <v>70.930999999999997</v>
+        <v>70.765000000000001</v>
       </c>
       <c r="H6">
-        <v>10.071</v>
+        <v>10.111000000000001</v>
       </c>
       <c r="I6">
-        <v>9.3699999999999992</v>
+        <v>10.260999999999999</v>
       </c>
       <c r="J6">
-        <v>4.9875632707356586E-2</v>
+        <v>5.0987249259019582E-2</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>84.025000000000006</v>
+        <v>83.953999999999994</v>
       </c>
       <c r="M6">
-        <v>184.02500000000001</v>
+        <v>183.95400000000001</v>
       </c>
       <c r="N6">
-        <v>10.092000000000001</v>
+        <v>10.029</v>
       </c>
       <c r="O6">
-        <v>9.8620000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -780,46 +780,46 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>4.8336269440776687E-2</v>
+        <v>4.7632660597218955E-2</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>8.1829999999999998</v>
+        <v>8.173</v>
       </c>
       <c r="F7">
-        <v>184.00299999999999</v>
+        <v>184.084</v>
       </c>
       <c r="G7">
-        <v>70.912000000000006</v>
+        <v>70.997</v>
       </c>
       <c r="H7">
-        <v>7.2759999999999998</v>
+        <v>7.218</v>
       </c>
       <c r="I7">
-        <v>7.1379999999999999</v>
+        <v>7.1829999999999998</v>
       </c>
       <c r="J7">
-        <v>4.0353037766830864E-2</v>
+        <v>4.6374889478337747E-2</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>84.003</v>
+        <v>84.084000000000003</v>
       </c>
       <c r="M7">
-        <v>108.515</v>
+        <v>108.544</v>
       </c>
       <c r="N7">
-        <v>7.1790000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="O7">
-        <v>7.117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.1740000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -827,46 +827,46 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>4.7550486565872428E-2</v>
+        <v>5.0867365235368042E-2</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>8.1780000000000008</v>
+        <v>8.1850000000000005</v>
       </c>
       <c r="F8">
-        <v>183.874</v>
+        <v>184.03299999999999</v>
       </c>
       <c r="G8">
-        <v>70.691999999999993</v>
+        <v>71.097999999999999</v>
       </c>
       <c r="H8">
-        <v>10.048</v>
+        <v>9.8089999999999993</v>
       </c>
       <c r="I8">
-        <v>9.7889999999999997</v>
+        <v>9.5350000000000001</v>
       </c>
       <c r="J8">
-        <v>4.5406976744186055E-2</v>
+        <v>4.1236848858095962E-2</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>83.873999999999995</v>
+        <v>84.033000000000001</v>
       </c>
       <c r="M8">
-        <v>112.202</v>
+        <v>112.163</v>
       </c>
       <c r="N8">
-        <v>10.337</v>
+        <v>10.241</v>
       </c>
       <c r="O8">
-        <v>10.244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -874,46 +874,46 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>4.973271870233896E-2</v>
+        <v>4.7218469305194861E-2</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>8.1750000000000007</v>
+        <v>8.1709999999999994</v>
       </c>
       <c r="F9">
-        <v>183.89400000000001</v>
+        <v>183.852</v>
       </c>
       <c r="G9">
-        <v>70.873999999999995</v>
+        <v>70.850999999999999</v>
       </c>
       <c r="H9">
-        <v>17.524999999999999</v>
+        <v>16.276</v>
       </c>
       <c r="I9">
-        <v>16.965</v>
+        <v>17.181999999999999</v>
       </c>
       <c r="J9">
-        <v>4.7608221322806871E-2</v>
+        <v>4.9107861000311892E-2</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>83.894000000000005</v>
+        <v>83.852000000000004</v>
       </c>
       <c r="M9">
-        <v>119.923</v>
+        <v>119.69499999999999</v>
       </c>
       <c r="N9">
-        <v>16.779</v>
+        <v>16.658999999999999</v>
       </c>
       <c r="O9">
-        <v>16.614000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16.515999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -921,46 +921,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.4771050830213525E-2</v>
+        <v>5.578169027651559E-2</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>8.1880000000000006</v>
+        <v>8.2029999999999994</v>
       </c>
       <c r="F10">
-        <v>185.642</v>
+        <v>185.92599999999999</v>
       </c>
       <c r="G10">
-        <v>73.608999999999995</v>
+        <v>74.126999999999995</v>
       </c>
       <c r="H10">
-        <v>10.728999999999999</v>
+        <v>10.837</v>
       </c>
       <c r="I10">
-        <v>10.6</v>
+        <v>10.374000000000001</v>
       </c>
       <c r="J10">
-        <v>5.1353461913268318E-2</v>
+        <v>5.2009202572490962E-2</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>85.641999999999996</v>
+        <v>85.926000000000002</v>
       </c>
       <c r="M10">
-        <v>185.642</v>
+        <v>185.92599999999999</v>
       </c>
       <c r="N10">
-        <v>10.476000000000001</v>
+        <v>10.577</v>
       </c>
       <c r="O10">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -968,46 +968,46 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>5.6493744858500443E-2</v>
+        <v>5.6222119957574167E-2</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>8.1880000000000006</v>
+        <v>8.1820000000000004</v>
       </c>
       <c r="F11">
-        <v>185.89599999999999</v>
+        <v>186.096</v>
       </c>
       <c r="G11">
-        <v>73.989999999999995</v>
+        <v>74.206000000000003</v>
       </c>
       <c r="H11">
-        <v>7.5439999999999996</v>
+        <v>7.5659999999999998</v>
       </c>
       <c r="I11">
-        <v>7.5890000000000004</v>
+        <v>7.3029999999999999</v>
       </c>
       <c r="J11">
-        <v>5.6024096385542177E-2</v>
+        <v>5.6252905625290554E-2</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>85.896000000000001</v>
+        <v>86.096000000000004</v>
       </c>
       <c r="M11">
-        <v>108.843</v>
+        <v>108.687</v>
       </c>
       <c r="N11">
-        <v>7.5709999999999997</v>
+        <v>7.4960000000000004</v>
       </c>
       <c r="O11">
-        <v>7.4939999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.4290000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1015,46 +1015,46 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>5.4961552193712224E-2</v>
+        <v>5.6363825288371812E-2</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>8.2070000000000007</v>
+        <v>8.1809999999999992</v>
       </c>
       <c r="F12">
-        <v>185.702</v>
+        <v>185.90700000000001</v>
       </c>
       <c r="G12">
-        <v>73.888999999999996</v>
+        <v>73.960999999999999</v>
       </c>
       <c r="H12">
-        <v>10.26</v>
+        <v>11.077999999999999</v>
       </c>
       <c r="I12">
-        <v>10.677</v>
+        <v>10.212</v>
       </c>
       <c r="J12">
-        <v>5.0597402597402613E-2</v>
+        <v>5.8551446583361498E-2</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>85.701999999999998</v>
+        <v>85.906999999999996</v>
       </c>
       <c r="M12">
-        <v>112.35</v>
+        <v>112.255</v>
       </c>
       <c r="N12">
-        <v>10.676</v>
+        <v>10.538</v>
       </c>
       <c r="O12">
-        <v>10.592000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1062,46 +1062,46 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>5.2502222514626863E-2</v>
+        <v>5.8387969502678702E-2</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>8.18</v>
+        <v>8.1940000000000008</v>
       </c>
       <c r="F13">
-        <v>185.70599999999999</v>
+        <v>185.833</v>
       </c>
       <c r="G13">
-        <v>73.784999999999997</v>
+        <v>73.972999999999999</v>
       </c>
       <c r="H13">
         <v>17.789000000000001</v>
       </c>
       <c r="I13">
-        <v>17.581</v>
+        <v>17.457000000000001</v>
       </c>
       <c r="J13">
-        <v>5.6149330121932899E-2</v>
+        <v>5.7067850019275605E-2</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>85.706000000000003</v>
+        <v>85.832999999999998</v>
       </c>
       <c r="M13">
-        <v>120.215</v>
+        <v>120.27500000000001</v>
       </c>
       <c r="N13">
-        <v>17.361000000000001</v>
+        <v>17.568000000000001</v>
       </c>
       <c r="O13">
-        <v>17.199000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17.411000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1109,46 +1109,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.9335869207369713E-2</v>
+        <v>6.9890903596909443E-2</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>8.1989999999999998</v>
+        <v>8.1649999999999991</v>
       </c>
       <c r="F14">
-        <v>187.05799999999999</v>
+        <v>187.167</v>
       </c>
       <c r="G14">
-        <v>76.153999999999996</v>
+        <v>76.263000000000005</v>
       </c>
       <c r="H14">
-        <v>11.263</v>
+        <v>10.898999999999999</v>
       </c>
       <c r="I14">
-        <v>10.565</v>
+        <v>11.002000000000001</v>
       </c>
       <c r="J14">
-        <v>6.759686092182926E-2</v>
+        <v>7.2476828408949354E-2</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>87.058000000000007</v>
+        <v>87.167000000000002</v>
       </c>
       <c r="M14">
-        <v>187.05799999999999</v>
+        <v>187.167</v>
       </c>
       <c r="N14">
-        <v>11.143000000000001</v>
+        <v>11.022</v>
       </c>
       <c r="O14">
-        <v>11.406000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11.117000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1156,46 +1156,46 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>7.3500870438695562E-2</v>
+        <v>6.8328874235574655E-2</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>8.1980000000000004</v>
+        <v>8.16</v>
       </c>
       <c r="F15">
-        <v>187.29400000000001</v>
+        <v>187.32599999999999</v>
       </c>
       <c r="G15">
-        <v>76.204999999999998</v>
+        <v>76.408000000000001</v>
       </c>
       <c r="H15">
-        <v>7.6989999999999998</v>
+        <v>7.7350000000000003</v>
       </c>
       <c r="I15">
-        <v>7.7069999999999999</v>
+        <v>7.577</v>
       </c>
       <c r="J15">
-        <v>7.710124164278892E-2</v>
+        <v>7.6784037558685458E-2</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>87.293999999999997</v>
+        <v>87.325999999999993</v>
       </c>
       <c r="M15">
-        <v>108.97</v>
+        <v>108.929</v>
       </c>
       <c r="N15">
-        <v>7.8479999999999999</v>
+        <v>7.8129999999999997</v>
       </c>
       <c r="O15">
-        <v>7.7619999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.7190000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1203,46 +1203,46 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>7.1376182465140034E-2</v>
+        <v>6.7338460058061975E-2</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>8.1780000000000008</v>
+        <v>8.1709999999999994</v>
       </c>
       <c r="F16">
-        <v>187.21600000000001</v>
+        <v>187.24299999999999</v>
       </c>
       <c r="G16">
-        <v>76.072000000000003</v>
+        <v>76.596000000000004</v>
       </c>
       <c r="H16">
-        <v>10.5</v>
+        <v>11.968</v>
       </c>
       <c r="I16">
-        <v>10.928000000000001</v>
+        <v>10.468</v>
       </c>
       <c r="J16">
-        <v>6.7489711934156399E-2</v>
+        <v>7.1700083542188819E-2</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>87.215999999999994</v>
+        <v>87.242999999999995</v>
       </c>
       <c r="M16">
-        <v>112.535</v>
+        <v>112.53</v>
       </c>
       <c r="N16">
-        <v>11.016</v>
+        <v>11.038</v>
       </c>
       <c r="O16">
-        <v>10.897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.933999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1250,43 +1250,43 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>6.9408901214984178E-2</v>
+        <v>7.3762880892383864E-2</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>8.1720000000000006</v>
+        <v>8.1790000000000003</v>
       </c>
       <c r="F17">
-        <v>187.09200000000001</v>
+        <v>187.548</v>
       </c>
       <c r="G17">
-        <v>76.078999999999994</v>
+        <v>76.649000000000001</v>
       </c>
       <c r="H17">
-        <v>18.454999999999998</v>
+        <v>18.154</v>
       </c>
       <c r="I17">
-        <v>18.567</v>
+        <v>18.427</v>
       </c>
       <c r="J17">
-        <v>7.1016274440932017E-2</v>
+        <v>6.7356088004822207E-2</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>87.091999999999999</v>
+        <v>87.548000000000002</v>
       </c>
       <c r="M17">
-        <v>120.745</v>
+        <v>120.58799999999999</v>
       </c>
       <c r="N17">
-        <v>18.093</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="O17">
-        <v>17.882000000000001</v>
+        <v>17.826000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1295,29 +1295,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1E587B-F574-492C-9E03-F2164ADF3AB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4961645F-858E-4202-A16F-F3AE72717592}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22.981961046756272</v>
       </c>
